--- a/data/trans_camb/P2A_lim_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.909251628182546</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.230528470722858</v>
+        <v>4.230528470722859</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.773902337603459</v>
@@ -655,7 +655,7 @@
         <v>-1.34527316885902</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.782812116023224</v>
+        <v>5.78281211602322</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.030764076633257</v>
@@ -664,7 +664,7 @@
         <v>0.3238139890296997</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.940782800911711</v>
+        <v>4.940782800911708</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.182423380835131</v>
+        <v>0.06223543107297206</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2964412221371718</v>
+        <v>-0.3301877338639463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.983014834093055</v>
+        <v>1.211902004317409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7909121517076863</v>
+        <v>-0.9847788677153085</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.654752524373168</v>
+        <v>-3.715593767405516</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.698938853863741</v>
+        <v>1.665827667944973</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1929288381972741</v>
+        <v>0.3148395397406862</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.389955998285421</v>
+        <v>-1.33284196089051</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.152706463938715</v>
+        <v>2.480204815004573</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.666646474636239</v>
+        <v>4.596965952535792</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.204149671887984</v>
+        <v>4.282943516031333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.575823129497293</v>
+        <v>9.209431578853437</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.649143610765195</v>
+        <v>4.455474033312709</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.237868839608089</v>
+        <v>1.059776187158485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.67757388139541</v>
+        <v>11.03532680724758</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.930735092919385</v>
+        <v>3.807130989029941</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.930756255880513</v>
+        <v>1.973934264966079</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.935524774090839</v>
+        <v>8.603869738380338</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3383986795961573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.454645814481412</v>
+        <v>1.454645814481411</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.6828366242703406</v>
@@ -769,7 +769,7 @@
         <v>0.1088812106264595</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.661319248182067</v>
+        <v>1.661319248182066</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0247774638794251</v>
+        <v>-0.1061123002484337</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1860503202773217</v>
+        <v>-0.2005962221784255</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1952530610502159</v>
+        <v>0.3464095834098792</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1551800399543198</v>
+        <v>-0.2130601770355113</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6945307017317843</v>
+        <v>-0.71443652412725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3126681329668363</v>
+        <v>0.3056513471959495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01850856042599441</v>
+        <v>0.05041849166664071</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3897532241321412</v>
+        <v>-0.3911244051526366</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5550946639721114</v>
+        <v>0.6611133887960406</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.728894305198886</v>
+        <v>3.920987770168523</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.356064886127368</v>
+        <v>3.335954689866475</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.301190436112878</v>
+        <v>7.984865662834475</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.671303872773267</v>
+        <v>1.710449996877404</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5395035996353389</v>
+        <v>0.4700640145035247</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.17248111223344</v>
+        <v>3.599676245046073</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.649385183268381</v>
+        <v>1.661982333398782</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8214597167495109</v>
+        <v>0.9099468152608388</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.443651401674489</v>
+        <v>3.671042508154969</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4770554724111744</v>
+        <v>0.5113861112382471</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.672859781604352</v>
+        <v>-1.621935632973559</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.935426092171961</v>
+        <v>3.515704522383487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8043803232113617</v>
+        <v>0.6912572701493724</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.626600864743987</v>
+        <v>-1.557478092601916</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.098087947990297</v>
+        <v>1.099227683480998</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.158845255197768</v>
+        <v>1.251615198956982</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8661976250604664</v>
+        <v>-1.077635417385624</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.376416409754685</v>
+        <v>3.207367742734468</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.086977904846302</v>
+        <v>5.216291345713382</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.34534495889555</v>
+        <v>2.399861985265418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.71559596891858</v>
+        <v>12.39382608829852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.972406531560483</v>
+        <v>5.777515779862315</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.455102001741781</v>
+        <v>2.53532828687826</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.654001101008301</v>
+        <v>6.78133281791527</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.578088542277323</v>
+        <v>4.554955174344133</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.927418343609705</v>
+        <v>1.895385720003025</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.051103083816621</v>
+        <v>8.083738514642294</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05027391536865802</v>
+        <v>0.09533402637058391</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4077214410440843</v>
+        <v>-0.3881684344974282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9256271746724444</v>
+        <v>0.7487182706306877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09633974168503101</v>
+        <v>0.1483723669247933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4027145040989046</v>
+        <v>-0.3943699137929766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2380275772561327</v>
+        <v>0.2316614760123018</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2689277703488934</v>
+        <v>0.3191487177279648</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2220378078699528</v>
+        <v>-0.2701369729430255</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8508071244792358</v>
+        <v>0.7940874581476163</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.944334790528328</v>
+        <v>2.154376466230142</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9376977813214117</v>
+        <v>1.004991931068388</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.413715513877232</v>
+        <v>4.627531586497836</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.699496245238735</v>
+        <v>2.78911284320589</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.192300893143262</v>
+        <v>1.219093989818758</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.919652714431811</v>
+        <v>2.961406103207811</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.711220965109047</v>
+        <v>1.685019831100746</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7423446903540336</v>
+        <v>0.7525919930686199</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.022389331601689</v>
+        <v>2.875515744595486</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.7675703761014695</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.46597552146717</v>
+        <v>2.465975521467171</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.843048931675243</v>
@@ -1092,7 +1092,7 @@
         <v>-0.6780892248809706</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.557832920447019</v>
+        <v>1.557832920447022</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.248270200934944</v>
+        <v>-0.7128291651674363</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.184905990268339</v>
+        <v>-3.43332147723208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.957809315982886</v>
+        <v>-2.135155730410808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6194506358638739</v>
+        <v>0.3964102260570181</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.292152557871271</v>
+        <v>-3.239565906018809</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.306685816276883</v>
+        <v>-0.08348030133999372</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9003175403743748</v>
+        <v>0.8895905895536512</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.385102926074715</v>
+        <v>-2.57185351840813</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4226141071907709</v>
+        <v>-0.3310028358951081</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.276804639227611</v>
+        <v>4.980766794134464</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.82336570771325</v>
+        <v>1.964513738087947</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.42680289702605</v>
+        <v>3.424755067316793</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.536238204032098</v>
+        <v>6.573257007643664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.733176572995716</v>
+        <v>1.821059603034616</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.091255033946831</v>
+        <v>5.311434294267565</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.189477484894861</v>
+        <v>5.016522546806145</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.152555202823113</v>
+        <v>1.066698744098107</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.560252907778653</v>
+        <v>3.537240249722946</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1237022148328744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3974184559837879</v>
+        <v>0.3974184559837881</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5016898362028818</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1196569177446477</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2748981679432442</v>
+        <v>0.2748981679432447</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.06010339862058108</v>
+        <v>-0.1162299797129279</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5053335240633484</v>
+        <v>-0.5159087833695354</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3169002416975858</v>
+        <v>-0.3148548258131389</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.07294628053984528</v>
+        <v>0.04555950269611064</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4265072220962591</v>
+        <v>-0.4317801556111124</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04363951776266368</v>
+        <v>-0.0228252578338505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.125667346290055</v>
+        <v>0.1269529769790033</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3632455916672996</v>
+        <v>-0.3827774232436569</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.06294399442030943</v>
+        <v>-0.05254187147508527</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.44266005338233</v>
+        <v>1.400096976157327</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4816951245349181</v>
+        <v>0.543822447027151</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8914147439335041</v>
+        <v>0.9106186530911977</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.351805098974819</v>
+        <v>1.372076683916525</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3881645732951674</v>
+        <v>0.3972634695672928</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.059815936747508</v>
+        <v>1.049322902378231</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.117670316492735</v>
+        <v>1.034728736521176</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2525112593677143</v>
+        <v>0.2348485270985277</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7732478605927536</v>
+        <v>0.7406059198151014</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.642105086441374</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.768646832105825</v>
+        <v>1.768646832105822</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.186824092848068</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9134668716778505</v>
+        <v>-0.9043004826761615</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5297435569339044</v>
+        <v>-0.436767138456179</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.410266995952886</v>
+        <v>3.753082133990159</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.462315774262232</v>
+        <v>-2.29019762777723</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.308548835218029</v>
+        <v>-6.113568838546418</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.517283888100376</v>
+        <v>-1.533263068386329</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.363330646604932</v>
+        <v>-0.3390708785007822</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.307583440576187</v>
+        <v>-2.400125821403527</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.860107324936654</v>
+        <v>1.90421338988272</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.911808752783642</v>
+        <v>5.617749954643294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.412923598410266</v>
+        <v>6.19419794046882</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.47777508891164</v>
+        <v>10.54900725567954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.64757352809877</v>
+        <v>5.845335233424964</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7839286412128015</v>
+        <v>0.8768569618706032</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.004901232150534</v>
+        <v>4.881412381499694</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.024184413138023</v>
+        <v>5.081876403092057</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.614517391268786</v>
+        <v>2.774979206050372</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.737372203516038</v>
+        <v>7.007806296666698</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2453500668530338</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1642393486630908</v>
+        <v>0.1642393486630906</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.246571437017768</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1138597900265012</v>
+        <v>-0.1226739421393866</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06528310218837571</v>
+        <v>-0.06917961127133182</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3476600949403111</v>
+        <v>0.4103714773613463</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1792524593232052</v>
+        <v>-0.1714903169353621</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4708111600266073</v>
+        <v>-0.474208871430168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1252729658924816</v>
+        <v>-0.1217426250318183</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04083000457981144</v>
+        <v>-0.04617020457296683</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2325142921328537</v>
+        <v>-0.2376912656643902</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1701022817162344</v>
+        <v>0.1748925446754804</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.158019541039869</v>
+        <v>1.029973907176628</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.193290634125128</v>
+        <v>1.138336360668963</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.996044326467243</v>
+        <v>1.981698220058715</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6620762426541082</v>
+        <v>0.6571769131107886</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09085288819845547</v>
+        <v>0.1056121791339128</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5407598069103078</v>
+        <v>0.53605266375425</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.67312824290852</v>
+        <v>0.6421068366964133</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3606473285996328</v>
+        <v>0.3631132534864285</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8725930780648304</v>
+        <v>0.9332953049521323</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.684686630097712</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.898552512294095</v>
+        <v>5.898552512294092</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.528827531483878</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.741229542594862</v>
+        <v>-4.152575064771548</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.752615014453853</v>
+        <v>-5.999320641623442</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.467611693071518</v>
+        <v>1.525825892529347</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.1231922331629595</v>
+        <v>0.06181765155106598</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1212036736796613</v>
+        <v>0.08150387054978574</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.6333341914638779</v>
+        <v>-0.4916314171472602</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7638172720186123</v>
+        <v>-0.4828755715104247</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.933599139669751</v>
+        <v>-1.653954702491192</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.890580421948919</v>
+        <v>1.80781916783688</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.472729324557451</v>
+        <v>5.249260498411315</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.327694239971928</v>
+        <v>2.952749946374275</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.07387178139403</v>
+        <v>10.58199223916659</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.925958098050483</v>
+        <v>8.984724457046299</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.270709885643754</v>
+        <v>9.296375519871516</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.693576102684115</v>
+        <v>6.959723730026392</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.78723236639933</v>
+        <v>5.776216585517802</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.669275235514359</v>
+        <v>4.723682019771913</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.585426501689307</v>
+        <v>7.443085729783109</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1361926034940338</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4768478654389349</v>
+        <v>0.4768478654389346</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4554557145318797</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2584039906658653</v>
+        <v>-0.2824220240658309</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4582168096498757</v>
+        <v>-0.4201741136349429</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.09056556259932019</v>
+        <v>0.08799766913193094</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01242085763420486</v>
+        <v>-0.01080529842220915</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.002967581301355963</v>
+        <v>0.008411631504574264</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.0625554080941141</v>
+        <v>-0.04841309080106061</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0568378336275193</v>
+        <v>-0.03401148869294669</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1537927830382664</v>
+        <v>-0.126871533147048</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1439661321687983</v>
+        <v>0.1319877185729023</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5400098100660677</v>
+        <v>0.5208644371666369</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2442562819493608</v>
+        <v>0.2890304883265235</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.027310785105613</v>
+        <v>1.05053487247207</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.180278126944506</v>
+        <v>1.179291936698057</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.256032550916467</v>
+        <v>1.184820539337972</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8770372944151479</v>
+        <v>0.9237470387272467</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.602453722542007</v>
+        <v>0.6210634756150601</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4880210351737763</v>
+        <v>0.4870989731346734</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8267337624813239</v>
+        <v>0.7727133918170626</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-2.060706967767777</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4.852177388082533</v>
+        <v>4.852177388082531</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.744502590021883</v>
@@ -1725,7 +1725,7 @@
         <v>1.054938357433501</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.886458646522095</v>
+        <v>6.886458646522092</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.262372941031868</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.504542700624817</v>
+        <v>-1.596959978292439</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.913150745910627</v>
+        <v>-7.251593333906103</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.2308701375609552</v>
+        <v>-0.001703805879466403</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.347564466392638</v>
+        <v>-2.83801706084966</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.546922526630556</v>
+        <v>-3.458837797861722</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.544991119820857</v>
+        <v>2.775292091270637</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.4892252190873781</v>
+        <v>-0.4495814941661382</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.932366600176565</v>
+        <v>-3.313018710805934</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.722618901407218</v>
+        <v>2.942501127530007</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.244905860228265</v>
+        <v>9.729186417290741</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.549244422212083</v>
+        <v>2.202010343426781</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.84764582538855</v>
+        <v>9.273178331416588</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.458640253721819</v>
+        <v>7.70123976993142</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.87585381658957</v>
+        <v>5.701823262436066</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.68969870100856</v>
+        <v>10.76700184500442</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.255056850743953</v>
+        <v>7.099263108934056</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.993129643343575</v>
+        <v>3.118118010784761</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.865331019357063</v>
+        <v>9.125432162451727</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.17597857839749</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.4143623000470367</v>
+        <v>0.4143623000470364</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2478200700616719</v>
@@ -1830,7 +1830,7 @@
         <v>0.09525766111513514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6218258530571489</v>
+        <v>0.6218258530571487</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2870124540125563</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1837605757990587</v>
+        <v>-0.1280061573678705</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4800572031743159</v>
+        <v>-0.4945053219993185</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.008456648870743124</v>
+        <v>-0.01402326089259665</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1847813594501267</v>
+        <v>-0.2164140137338757</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2772832496437742</v>
+        <v>-0.2758749109669458</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1804482046325483</v>
+        <v>0.2101348006516894</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.04081011419767224</v>
+        <v>-0.05702405158628333</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.302240355551497</v>
+        <v>-0.2598379791443527</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2019715009706466</v>
+        <v>0.2110234050396797</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9734043554346496</v>
+        <v>0.9965052715493047</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2647208242459794</v>
+        <v>0.2596490360575257</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.095588500608461</v>
+        <v>0.9971780696385888</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.8067146265381092</v>
+        <v>0.8681921135969521</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6517965782526421</v>
+        <v>0.624027761201595</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.234506782079323</v>
+        <v>1.262281714362989</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7473199491941174</v>
+        <v>0.6949269634800955</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3102490759377303</v>
+        <v>0.332022797373468</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.9464947169539674</v>
+        <v>0.9449113587677727</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.1517880690816986</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>18.78928882504976</v>
+        <v>18.78928882504975</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>5.317640601913181</v>
@@ -1948,7 +1948,7 @@
         <v>-2.470815219639352</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>16.41378045139774</v>
+        <v>16.41378045139775</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.205151565245236</v>
+        <v>-2.040056825970722</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-12.49861351893282</v>
+        <v>-12.63717670746049</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.262134270892723</v>
+        <v>5.539966781595843</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.8054761994058902</v>
+        <v>-1.155302341122653</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.323570500968296</v>
+        <v>-6.143298517632562</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>12.83576321904984</v>
+        <v>13.11867384902962</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.538596863868269</v>
+        <v>0.6529756413550527</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.954960221434189</v>
+        <v>-6.399923319828553</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>12.0754035550249</v>
+        <v>12.10168487514823</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.872902485491</v>
+        <v>12.73598747687796</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.5248210043082236</v>
+        <v>-0.6812548099354714</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18.54471697284954</v>
+        <v>18.32401402059368</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.28049772409919</v>
+        <v>11.91241020724394</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.241597063854847</v>
+        <v>6.450674168052436</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23.83336896201871</v>
+        <v>23.92769709873145</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.692150128151729</v>
+        <v>10.10467290212295</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.405058047506195</v>
+        <v>2.220700110107017</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.25708869672278</v>
+        <v>20.44734194718607</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.1502192414993969</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.9979158416817964</v>
+        <v>0.9979158416817967</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1181166347747711</v>
+        <v>-0.1479763345805543</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6381046027750651</v>
+        <v>-0.648740381893499</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3226232451535503</v>
+        <v>0.2603389553946946</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.04510254893831595</v>
+        <v>-0.06318365196608275</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3185694636669166</v>
+        <v>-0.3150800582814075</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.580062559190011</v>
+        <v>0.6094049630615511</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02489570295016966</v>
+        <v>0.03274791934982935</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3680060227447557</v>
+        <v>-0.3538066881273331</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6103962738758764</v>
+        <v>0.6260551337253597</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.061902982426372</v>
+        <v>1.0002522997638</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.0125772993193049</v>
+        <v>-0.03504273103334877</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.621135234472448</v>
+        <v>1.542350975120423</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8617113898522928</v>
+        <v>0.9012897966986949</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4467860018802188</v>
+        <v>0.4683844302472936</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.741761540190159</v>
+        <v>1.756911672304535</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6935293884981567</v>
+        <v>0.715444510611379</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1636585916003389</v>
+        <v>0.158659334454634</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.446573290255063</v>
+        <v>1.554421806887717</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>0.6687762982478127</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>6.457541064683757</v>
+        <v>6.45754106468376</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.182455053982348</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.571260814063222</v>
+        <v>1.521006615800888</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.8789311392780533</v>
+        <v>-0.9201515498671381</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5.478397549917808</v>
+        <v>5.413303083822864</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.977802287137629</v>
+        <v>1.991085317078762</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.7048635752767076</v>
+        <v>-0.6170889333657307</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>5.024777173470468</v>
+        <v>5.076676817283714</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.168567024136805</v>
+        <v>2.221464311960428</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.4097381758926981</v>
+        <v>-0.4768923835939173</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>5.565307763846215</v>
+        <v>5.640514768099337</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.274531538384271</v>
+        <v>4.348836370611293</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.616570104818821</v>
+        <v>1.716349350771134</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8.443462557340849</v>
+        <v>8.4666636500286</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.04948212467312</v>
+        <v>4.976744520035103</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.066035485821342</v>
+        <v>2.079006842572924</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.74205297029833</v>
+        <v>7.844157180860951</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.296546685224095</v>
+        <v>4.201174670800952</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.444708956137654</v>
+        <v>1.473711327605025</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>7.607265723158125</v>
+        <v>7.707800792236133</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.08315475932622317</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.8029221048650359</v>
+        <v>0.8029221048650362</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.4322009587841483</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2178463376350431</v>
+        <v>0.2082810753178573</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.120990395027456</v>
+        <v>-0.1294270194613141</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.7451384454183413</v>
+        <v>0.7593551922774737</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2220773774433033</v>
+        <v>0.2370522800990407</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.08173528671295088</v>
+        <v>-0.07126063291418815</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5681472271051438</v>
+        <v>0.5652964782620634</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2760079674826403</v>
+        <v>0.2822277680976936</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.05058257689356245</v>
+        <v>-0.06293961240126615</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.700525919733504</v>
+        <v>0.7087476326740817</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.7108528750800603</v>
+        <v>0.6970393405075853</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2655698015771804</v>
+        <v>0.2821100404204378</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.431687547598665</v>
+        <v>1.424531067746269</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6813034439727425</v>
+        <v>0.6804222624348443</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2896463765398892</v>
+        <v>0.2793188355695809</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.051677681644487</v>
+        <v>1.05976572605801</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6147566829475886</v>
+        <v>0.594702950423458</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2105092982432977</v>
+        <v>0.2121994186016925</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.100717932415363</v>
+        <v>1.110889227082232</v>
       </c>
     </row>
     <row r="52">
